--- a/biology/Zoologie/Grive_des_Bonin/Grive_des_Bonin.xlsx
+++ b/biology/Zoologie/Grive_des_Bonin/Grive_des_Bonin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zoothera terrestris
-La Grive des Bonin (Zoothera terrestris) est une espèce éteinte de passereaux de la famille des Turdidae[1].
+La Grive des Bonin (Zoothera terrestris) est une espèce éteinte de passereaux de la famille des Turdidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était endémique de l'archipel d'Ogasawara au Japon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était endémique de l'archipel d'Ogasawara au Japon.
 On ignore tout de son écologie. On pense qu'il a été détruit par les rats et les chats introduits dans l'île.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est connue seulement de quatre spécimens (aujourd'hui dans les muséums de Francfort-sur-le-Main, de Saint-Pétersbourg, de Leyde et de Vienne).
 Cet oiseau a été découvert en 1828 par Friedrich Heinrich von Kittlitz (1799-1874) qui visite l'archipel d'Ogasawara (ou îles Bonin), pendant l'expédition du Séniavine.
